--- a/data/trans_camb/P38B-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P38B-Estudios-trans_camb.xlsx
@@ -612,19 +612,19 @@
         <v>0.8916110056528925</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>-0.8941964335387409</v>
+        <v>-0.8941964335387187</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.3891765913721978</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>1.084237459200366</v>
+        <v>1.084237459200399</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.5572900363834843</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.3083956068169802</v>
+        <v>0.3083956068169913</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.343993585760602</v>
+        <v>-2.135091589497371</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.977672799846362</v>
+        <v>-4.682027053102489</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.830823233990536</v>
+        <v>-1.719406233263916</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.006527316899731</v>
+        <v>-1.043336607806101</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.385909055529325</v>
+        <v>-1.279214424027903</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-1.761567909436804</v>
+        <v>-1.602249104108402</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.112196115406753</v>
+        <v>4.330778386037819</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.42196718615361</v>
+        <v>2.77362601679338</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.3988649191569</v>
+        <v>2.653578859947359</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.082242484431151</v>
+        <v>3.124240399187152</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.291522771732908</v>
+        <v>2.24404156121367</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.289082365822694</v>
+        <v>2.222132516106494</v>
       </c>
     </row>
     <row r="7">
@@ -690,19 +690,19 @@
         <v>0.010122804571161</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>-0.01015215793384421</v>
+        <v>-0.01015215793384396</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>0.004185697366316525</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>0.01166126118077949</v>
+        <v>0.01166126118077985</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.00612987407503378</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003392176625567501</v>
+        <v>0.003392176625567624</v>
       </c>
     </row>
     <row r="8">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.02606586292859911</v>
+        <v>-0.02404689011614692</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.05551483684377704</v>
+        <v>-0.05206962107985997</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.01954754479636693</v>
+        <v>-0.01819731326970781</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.01082748769287369</v>
+        <v>-0.01090365712792501</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.01518725034427156</v>
+        <v>-0.01399057921881607</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.019280336414653</v>
+        <v>-0.01750543063656109</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.04736858953222889</v>
+        <v>0.05030372291382797</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.02794826342628683</v>
+        <v>0.0318214572365557</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.02599145258055387</v>
+        <v>0.0290116630670011</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.03350765581091736</v>
+        <v>0.03404481238314407</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.02552734179858983</v>
+        <v>0.0247698105803882</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02550068015522902</v>
+        <v>0.02471253909577696</v>
       </c>
     </row>
     <row r="10">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.149921943968557</v>
+        <v>-1.046231131403962</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.810947068834861</v>
+        <v>-3.902032121664829</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.977822724467977</v>
+        <v>-0.8532984977937488</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.548490274394304</v>
+        <v>-3.830265745085783</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.26231938721322</v>
+        <v>-0.149923419414908</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-2.898591679275737</v>
+        <v>-2.763180692490061</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.198478664846162</v>
+        <v>4.281619170511335</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.211238837605699</v>
+        <v>2.065712688068172</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.70888153707143</v>
+        <v>3.921007607301064</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.292614331505769</v>
+        <v>1.169863049066457</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.277983850449571</v>
+        <v>3.444572488829808</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.054591077777826</v>
+        <v>1.189103580209445</v>
       </c>
     </row>
     <row r="13">
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.01455393008070364</v>
+        <v>-0.01373036645316909</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.04829904838754488</v>
+        <v>-0.0495545477706742</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.01151377340340499</v>
+        <v>-0.009949209913396368</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.0418279187497783</v>
+        <v>-0.0447407991873116</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.003203070449761889</v>
+        <v>-0.001813669233029008</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.03544850977788189</v>
+        <v>-0.03390561108747102</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.05456407762399631</v>
+        <v>0.05654030565235235</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.02859857137777442</v>
+        <v>0.02722423758071078</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.04509010628045305</v>
+        <v>0.04745827355507873</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.01558457736373699</v>
+        <v>0.0139274895607703</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.0411753392425117</v>
+        <v>0.04328862454951284</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01314541195193907</v>
+        <v>0.01508672466527071</v>
       </c>
     </row>
     <row r="16">
@@ -932,7 +932,7 @@
         <v>-6.48374744408814</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>-4.005172762513654</v>
+        <v>-4.005172762513665</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>-3.437657205671829</v>
@@ -944,7 +944,7 @@
         <v>-4.965678749904578</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-0.8173307801519369</v>
+        <v>-0.817330780151948</v>
       </c>
     </row>
     <row r="17">
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-10.95203011495619</v>
+        <v>-11.33812590900648</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-8.388395330754864</v>
+        <v>-8.241419441338749</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-7.732352943357282</v>
+        <v>-8.032186010431365</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.5237073290315</v>
+        <v>-1.588341366954097</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-8.125965680165811</v>
+        <v>-8.152110618773774</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-4.064941628256546</v>
+        <v>-3.647951565089257</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-1.865468668031751</v>
+        <v>-2.328992826818408</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3284515376889375</v>
+        <v>0.8758212198041743</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.270136062768068</v>
+        <v>1.282034181478157</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.246843890250267</v>
+        <v>6.631576505437859</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-1.748172884959162</v>
+        <v>-1.669322258451862</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.225207759779084</v>
+        <v>2.180468083857732</v>
       </c>
     </row>
     <row r="19">
@@ -1010,7 +1010,7 @@
         <v>-0.07376617913855794</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>-0.0455672115590872</v>
+        <v>-0.04556721155908733</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>-0.03949759682544253</v>
@@ -1022,7 +1022,7 @@
         <v>-0.05676723498047864</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.009343658901525701</v>
+        <v>-0.009343658901525827</v>
       </c>
     </row>
     <row r="20">
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.122521333813189</v>
+        <v>-0.1248056009959002</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.09349486893728916</v>
+        <v>-0.09215477379143402</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.08683225701261534</v>
+        <v>-0.09067772223722965</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.01677723498461546</v>
+        <v>-0.01763287442537107</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.09185964948270571</v>
+        <v>-0.09160456188534342</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.04559574610252895</v>
+        <v>-0.04094125038913845</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.02208906616958362</v>
+        <v>-0.02702601393883254</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.004086984992089166</v>
+        <v>0.009373119417524417</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.01461195406726864</v>
+        <v>0.01479806404478615</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.0728034480357259</v>
+        <v>0.07856231601474378</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.02052236876782992</v>
+        <v>-0.01938797558267337</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.02604212562625592</v>
+        <v>0.02521272592517346</v>
       </c>
     </row>
     <row r="22">
@@ -1092,7 +1092,7 @@
         <v>-0.2566925688497257</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>-2.101312378163667</v>
+        <v>-2.101312378163656</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>-0.4107134482051245</v>
@@ -1104,7 +1104,7 @@
         <v>-0.3201487915269974</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-1.56701445279066</v>
+        <v>-1.567014452790649</v>
       </c>
     </row>
     <row r="23">
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.136628234888142</v>
+        <v>-2.188901946783106</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.397173626600101</v>
+        <v>-4.370921827406876</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.013085847936655</v>
+        <v>-2.040930817536373</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.728723844002944</v>
+        <v>-2.722164627251018</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.489345155142165</v>
+        <v>-1.617966415644164</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-2.910139248619942</v>
+        <v>-2.991385015385585</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.660191283962805</v>
+        <v>1.616538912840276</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.04188672509421926</v>
+        <v>0.09874071233702558</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.28888691930526</v>
+        <v>1.095687702240783</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4244527782484999</v>
+        <v>0.5394050012752672</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.8631884939659212</v>
+        <v>0.8452447748284795</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-0.1961740287876687</v>
+        <v>-0.2798829160004496</v>
       </c>
     </row>
     <row r="25">
@@ -1170,7 +1170,7 @@
         <v>-0.00312648165910602</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>-0.02559370783432081</v>
+        <v>-0.02559370783432067</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>-0.004677730718465917</v>
@@ -1182,7 +1182,7 @@
         <v>-0.003766063169366234</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.01843353956880962</v>
+        <v>-0.01843353956880949</v>
       </c>
     </row>
     <row r="26">
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.0257380417663843</v>
+        <v>-0.02638938641663922</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.05297238166553317</v>
+        <v>-0.0526635682620072</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.02254501169885641</v>
+        <v>-0.02293625825226099</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.03080577663648567</v>
+        <v>-0.03063551551747278</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.01738509841367302</v>
+        <v>-0.01887477139484688</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.03397453434998413</v>
+        <v>-0.03493293027701382</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.02050082477807761</v>
+        <v>0.0200700584547606</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.00050629431777987</v>
+        <v>0.0012222053005363</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.01475769486575986</v>
+        <v>0.01261164973876145</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.004729541617980709</v>
+        <v>0.006170093285792373</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.01015685145553441</v>
+        <v>0.009989144848239978</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.00230242206542653</v>
+        <v>-0.003367437660294234</v>
       </c>
     </row>
     <row r="28">
